--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1802598.122217288</v>
+        <v>1800346.04250608</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>151.7611701629553</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>220.6848845467172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>86.04141908549666</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>46.32727239260574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>399.957146489229</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -950,19 +950,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.06815287720656</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>121.5845169204567</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>17.25588147840217</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,10 +1111,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877571</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>90.1806576174545</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>150.2062474346973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>21.88617166826039</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1370,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229358</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>38.37250637580779</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>70.81964134444598</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763391</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465709</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>156.8624097380494</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>53.7694747549375</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>55.30088041042054</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>271.1749250822257</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>146.1850499531015</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5115415340475</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>246.4095280310181</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>237.1280940168132</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.7039168809312</v>
       </c>
     </row>
     <row r="32">
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>66.2562870115476</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.986897510568</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740334</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>266.9172080589775</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890353</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3673,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362943</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>38.05096575280812</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722636</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>125.2851635392059</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>53.76947475493767</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2455.360493382254</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2455.360493382254</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2065.221161406442</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1337.101066913588</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.464090846021</v>
+        <v>1082.416578707701</v>
       </c>
       <c r="W4" t="n">
-        <v>1548.04692080906</v>
+        <v>792.9994086707405</v>
       </c>
       <c r="X4" t="n">
-        <v>1320.057369911043</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>817.0352339990388</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>817.0352339990388</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>810.0897332498354</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533245</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697683</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>504.4781294962293</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>335.5419465683224</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143257</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1909.864364776975</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1718.178480603802</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1496.411865173328</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1207.308998298972</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>952.6245100930846</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368016</v>
+        <v>663.2073400561239</v>
       </c>
       <c r="X7" t="n">
-        <v>906.9191734699991</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="Y7" t="n">
-        <v>686.126594326469</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1537.086630593157</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>1168.124113652745</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>809.8584150459947</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3234.514248258207</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2980.983771532044</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2649.920884188473</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2297.152228918359</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1923.686470657279</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1923.686470657279</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1494.054724415577</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.054724415577</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1494.054724415577</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1494.054724415577</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>858.1169920527757</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1552.432392194326</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.955329105729</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778221</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654864</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830932</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2408.20297612995</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2225.348141784855</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079499</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935969</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1089.917939501689</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>920.9817565737817</v>
+        <v>408.9258559154867</v>
       </c>
       <c r="D16" t="n">
-        <v>770.8651171614459</v>
+        <v>408.9258559154867</v>
       </c>
       <c r="E16" t="n">
-        <v>622.9520235790528</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>476.0620760811424</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1720.348534373476</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1492.358983475458</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1271.566404331928</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>985.7836617409695</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="C19" t="n">
-        <v>816.8474788130626</v>
+        <v>526.5658826424027</v>
       </c>
       <c r="D19" t="n">
-        <v>666.7308394007268</v>
+        <v>526.5658826424027</v>
       </c>
       <c r="E19" t="n">
-        <v>518.8177458183337</v>
+        <v>378.6527890600096</v>
       </c>
       <c r="F19" t="n">
-        <v>371.9277983204233</v>
+        <v>231.7628415620992</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>231.7628415620992</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
         <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075814</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>702.4944101284095</v>
+        <v>695.5020655703069</v>
       </c>
       <c r="C28" t="n">
-        <v>533.5582272005026</v>
+        <v>526.5658826424</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881669</v>
+        <v>376.4492432300642</v>
       </c>
       <c r="E28" t="n">
         <v>235.5284942057738</v>
@@ -6376,58 +6376,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038303</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797704</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>1104.935454102179</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y28" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="29">
@@ -6443,49 +6443,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784032</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504963</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381606</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557675</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578571</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578571</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887151</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.90165585019</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952173</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808643</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,13 +6710,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714573</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622266</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343197</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219839</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395908</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>302.4540366416804</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>315.9123021921476</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921476</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C37" t="n">
-        <v>614.6217844681063</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1413.988562267798</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7257,16 +7257,16 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934014</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622266</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343197</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219839</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395908</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>302.4540366416804</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934014</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
         <v>317.6151975578602</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>28.00274033431386</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>154.8900140445912</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372228877</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>8.661728554219451</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>111.7546635373313</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>84.99383243580334</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>84.99383243580198</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>15.00954930702318</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>139.9994244361426</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.922421112521647</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>5.728115292809889</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>15.00954930701479</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711636</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>99.26785128072125</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459447</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>19.60579027761355</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345294982</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>180.5336875992867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>40.23897475306295</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>15.8825942891924</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,16 +25834,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26071,13 +26071,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>232.4149996343065</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019905</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019905</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019905</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583916</v>
@@ -26320,40 +26320,40 @@
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907545</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907545</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907545</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972778</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26439,7 +26439,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26454,7 +26454,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181805</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-974049.4465837636</v>
       </c>
       <c r="C6" t="n">
-        <v>354695.2991438289</v>
+        <v>354695.2991438287</v>
       </c>
       <c r="D6" t="n">
         <v>354695.2991438288</v>
       </c>
       <c r="E6" t="n">
-        <v>105902.0429776737</v>
+        <v>105867.3050522379</v>
       </c>
       <c r="F6" t="n">
-        <v>431314.5047850286</v>
+        <v>431279.7668595933</v>
       </c>
       <c r="G6" t="n">
-        <v>431314.5047850287</v>
+        <v>431279.7668595936</v>
       </c>
       <c r="H6" t="n">
-        <v>431314.5047850286</v>
+        <v>431279.7668595929</v>
       </c>
       <c r="I6" t="n">
-        <v>431314.5047850289</v>
+        <v>431279.7668595929</v>
       </c>
       <c r="J6" t="n">
-        <v>213783.3023877512</v>
+        <v>213748.564462316</v>
       </c>
       <c r="K6" t="n">
-        <v>431314.5047850293</v>
+        <v>431279.7668595935</v>
       </c>
       <c r="L6" t="n">
-        <v>431314.5047850287</v>
+        <v>431279.7668595929</v>
       </c>
       <c r="M6" t="n">
-        <v>346259.4768495174</v>
+        <v>346224.7389240813</v>
       </c>
       <c r="N6" t="n">
-        <v>431314.5047850289</v>
+        <v>431279.7668595929</v>
       </c>
       <c r="O6" t="n">
-        <v>431314.5047850286</v>
+        <v>431279.7668595928</v>
       </c>
       <c r="P6" t="n">
-        <v>431314.5047850292</v>
+        <v>431279.766859593</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,22 +26811,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>202.9218714577276</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>128.5560841706958</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>200.1704191201162</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>172.257380959489</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>10.96457916422446</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>332.169785778847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>27.03095609775561</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>71.67627119164516</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>289.2070795747048</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>113.7373125221656</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>264.6368266683306</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29685,7 +29685,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30207,7 +30207,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>191.332301678856</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>514.695376254093</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>272.756932936465</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>320.9147064709964</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N27" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>514.6953762540926</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772183</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>360.3952288121454</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>213.3000196296242</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>372.0991318096486</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36042,7 +36042,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565909</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N27" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.332588409631</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>372.0991318096482</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028593151</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5537898377864</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>79.325612215294</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
